--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tff3</t>
+  </si>
+  <si>
+    <t>Ackr3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tff3</t>
-  </si>
-  <si>
-    <t>Ackr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4482143333333333</v>
+        <v>1.461763666666667</v>
       </c>
       <c r="H2">
-        <v>1.344643</v>
+        <v>4.385291</v>
       </c>
       <c r="I2">
-        <v>0.3182853663951962</v>
+        <v>0.4829359810344849</v>
       </c>
       <c r="J2">
-        <v>0.3182853663951962</v>
+        <v>0.482935981034485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.90542466666666</v>
+        <v>16.23967033333334</v>
       </c>
       <c r="N2">
-        <v>65.716274</v>
+        <v>48.71901100000001</v>
       </c>
       <c r="O2">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="P2">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="Q2">
-        <v>9.818325313353554</v>
+        <v>23.73856005191123</v>
       </c>
       <c r="R2">
-        <v>88.364927820182</v>
+        <v>213.6470404672011</v>
       </c>
       <c r="S2">
-        <v>0.1306119970908974</v>
+        <v>0.1647982404051666</v>
       </c>
       <c r="T2">
-        <v>0.1306119970908974</v>
+        <v>0.1647982404051666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4482143333333333</v>
+        <v>1.461763666666667</v>
       </c>
       <c r="H3">
-        <v>1.344643</v>
+        <v>4.385291</v>
       </c>
       <c r="I3">
-        <v>0.3182853663951962</v>
+        <v>0.4829359810344849</v>
       </c>
       <c r="J3">
-        <v>0.3182853663951962</v>
+        <v>0.482935981034485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>69.59894799999999</v>
       </c>
       <c r="O3">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="P3">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="Q3">
-        <v>10.39841535950711</v>
+        <v>33.91240447487422</v>
       </c>
       <c r="R3">
-        <v>93.58573823556399</v>
+        <v>305.211640273868</v>
       </c>
       <c r="S3">
-        <v>0.1383288649886863</v>
+        <v>0.235427278366769</v>
       </c>
       <c r="T3">
-        <v>0.1383288649886863</v>
+        <v>0.235427278366769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4482143333333333</v>
+        <v>1.461763666666667</v>
       </c>
       <c r="H4">
-        <v>1.344643</v>
+        <v>4.385291</v>
       </c>
       <c r="I4">
-        <v>0.3182853663951962</v>
+        <v>0.4829359810344849</v>
       </c>
       <c r="J4">
-        <v>0.3182853663951962</v>
+        <v>0.482935981034485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.275750666666667</v>
+        <v>8.150515666666667</v>
       </c>
       <c r="N4">
-        <v>24.827252</v>
+        <v>24.451547</v>
       </c>
       <c r="O4">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="P4">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="Q4">
-        <v>3.709310067892889</v>
+        <v>11.91412766613078</v>
       </c>
       <c r="R4">
-        <v>33.38379061103601</v>
+        <v>107.227148995177</v>
       </c>
       <c r="S4">
-        <v>0.04934450431561254</v>
+        <v>0.0827104622625494</v>
       </c>
       <c r="T4">
-        <v>0.04934450431561254</v>
+        <v>0.0827104622625494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2167346666666667</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H5">
-        <v>0.650204</v>
+        <v>1.344643</v>
       </c>
       <c r="I5">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="J5">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.90542466666666</v>
+        <v>16.23967033333334</v>
       </c>
       <c r="N5">
-        <v>65.716274</v>
+        <v>48.71901100000001</v>
       </c>
       <c r="O5">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="P5">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="Q5">
-        <v>4.747664913321778</v>
+        <v>7.278853012008113</v>
       </c>
       <c r="R5">
-        <v>42.728984219896</v>
+        <v>65.50967710807302</v>
       </c>
       <c r="S5">
-        <v>0.0631576135498343</v>
+        <v>0.05053137873247736</v>
       </c>
       <c r="T5">
-        <v>0.06315761354983429</v>
+        <v>0.05053137873247735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2167346666666667</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H6">
-        <v>0.650204</v>
+        <v>1.344643</v>
       </c>
       <c r="I6">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="J6">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>69.59894799999999</v>
       </c>
       <c r="O6">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="P6">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="Q6">
-        <v>5.028168265043554</v>
+        <v>10.39841535950711</v>
       </c>
       <c r="R6">
-        <v>45.25351438539199</v>
+        <v>93.58573823556399</v>
       </c>
       <c r="S6">
-        <v>0.06688911579586836</v>
+        <v>0.07218805818471964</v>
       </c>
       <c r="T6">
-        <v>0.06688911579586834</v>
+        <v>0.07218805818471963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2167346666666667</v>
+        <v>0.4482143333333333</v>
       </c>
       <c r="H7">
-        <v>0.650204</v>
+        <v>1.344643</v>
       </c>
       <c r="I7">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="J7">
-        <v>0.1539073333008257</v>
+        <v>0.1480805917660089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.275750666666667</v>
+        <v>8.150515666666667</v>
       </c>
       <c r="N7">
-        <v>24.827252</v>
+        <v>24.451547</v>
       </c>
       <c r="O7">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="P7">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="Q7">
-        <v>1.793642062156444</v>
+        <v>3.653177945857889</v>
       </c>
       <c r="R7">
-        <v>16.142778559408</v>
+        <v>32.878601512721</v>
       </c>
       <c r="S7">
-        <v>0.02386060395512306</v>
+        <v>0.0253611548488119</v>
       </c>
       <c r="T7">
-        <v>0.02386060395512305</v>
+        <v>0.0253611548488119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7432663333333333</v>
+        <v>1.116849</v>
       </c>
       <c r="H8">
-        <v>2.229799</v>
+        <v>3.350547</v>
       </c>
       <c r="I8">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="J8">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.90542466666666</v>
+        <v>16.23967033333334</v>
       </c>
       <c r="N8">
-        <v>65.716274</v>
+        <v>48.71901100000001</v>
       </c>
       <c r="O8">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="P8">
-        <v>0.4103613011498748</v>
+        <v>0.3412424148893533</v>
       </c>
       <c r="Q8">
-        <v>16.28156467210288</v>
+        <v>18.137259572113</v>
       </c>
       <c r="R8">
-        <v>146.534082048926</v>
+        <v>163.235336149017</v>
       </c>
       <c r="S8">
-        <v>0.2165916905091432</v>
+        <v>0.1259127957517094</v>
       </c>
       <c r="T8">
-        <v>0.2165916905091432</v>
+        <v>0.1259127957517094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7432663333333333</v>
+        <v>1.116849</v>
       </c>
       <c r="H9">
-        <v>2.229799</v>
+        <v>3.350547</v>
       </c>
       <c r="I9">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="J9">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>69.59894799999999</v>
       </c>
       <c r="O9">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="P9">
-        <v>0.4346064242769223</v>
+        <v>0.4874916916781935</v>
       </c>
       <c r="Q9">
-        <v>17.24351829460577</v>
+        <v>25.910505158284</v>
       </c>
       <c r="R9">
-        <v>155.191664651452</v>
+        <v>233.194546424556</v>
       </c>
       <c r="S9">
-        <v>0.2293884434923677</v>
+        <v>0.1798763551267049</v>
       </c>
       <c r="T9">
-        <v>0.2293884434923677</v>
+        <v>0.1798763551267049</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7432663333333333</v>
+        <v>1.116849</v>
       </c>
       <c r="H10">
-        <v>2.229799</v>
+        <v>3.350547</v>
       </c>
       <c r="I10">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="J10">
-        <v>0.5278073003039782</v>
+        <v>0.3689834271995063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.275750666666667</v>
+        <v>8.150515666666667</v>
       </c>
       <c r="N10">
-        <v>24.827252</v>
+        <v>24.451547</v>
       </c>
       <c r="O10">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="P10">
-        <v>0.1550322745732029</v>
+        <v>0.1712658934324533</v>
       </c>
       <c r="Q10">
-        <v>6.151086853594222</v>
+        <v>9.102895271801</v>
       </c>
       <c r="R10">
-        <v>55.359781682348</v>
+        <v>81.926057446209</v>
       </c>
       <c r="S10">
-        <v>0.08182716630246728</v>
+        <v>0.06319427632109204</v>
       </c>
       <c r="T10">
-        <v>0.08182716630246728</v>
+        <v>0.06319427632109204</v>
       </c>
     </row>
   </sheetData>
